--- a/biology/Botanique/Chytranthus/Chytranthus.xlsx
+++ b/biology/Botanique/Chytranthus/Chytranthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chytranthus est un genre de plantes à fleurs de la famille des Sapindaceae. Il comprend 32 espèces d'arbres et arbustes toutes originaires d'Afrique tropicale.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre est décrit par le naturaliste britannique Joseph Dalton Hooker en 1862, dans son ouvrage (la) Genera Plantarum ad exemplaria imprimis in herbariis Kewensibus, vol. 1 (lire en ligne), p. 403.
-Selon Plants of the World online (POWO)                (10 mars 2021)[1] et Catalogue of Life                                   (10 mars 2021)[2], le genre Glossolepis fait partie de Chytranthus.
+Selon Plants of the World online (POWO)                (10 mars 2021) et Catalogue of Life                                   (10 mars 2021), le genre Glossolepis fait partie de Chytranthus.
 </t>
         </is>
       </c>
@@ -545,11 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des arbres ou des arbustes, en général dioïques, à port de palmier. Les feuilles sont grandes, pétiolées, paripennées, 4-10-juguées, en rosette au sommet de la tige[3].
-Appareil reproducteur
-Les inflorescences sont en général caulinaires, souvent à la base même du tronc, en faux épis de cymules ; les bractées ne dépassent pas les fleurs, qui sont zygomorphes. Le calice est subglobuleux ou ovoïde, parfois turbiné, à cinq dents ou cinq lobes ; il y a 4 ou 5 pétales, dépassant peu le calice, brièvement onguiculés, à limbe oblong ou ovale, souvent denticulé, à écaille arrondie ou à deux lobes, présentant à la face externe une ligule ou deux appendices subulés. Le disque est asymétrique, unilatéral, glabre ; les étamines sont sept ou huit pour Chytranthus ou 12 à 15 pour Glossolepsis, en faisceau excentrique, aussi longues que les pétales dans les fleurs mâles, réduites dans les fleurs femelles, à filet cilié et anthère basifixe introrse, parfois glanduleuse ; l'ovaire des fleurs femelles possède 3 ou 6-8 carpelles et un ovule, velu. Le style est robuste et le stigmate à peine lobé[3].
-Les fruits sont indéhiscents, parfois volumineux, charnus, à sillons et côtes plus ou moins marqués, ces dernières parfois aliformes et peu charnues. Les graines sont plus ou moins allongées et comprimées latéralement ; les cotylédons sont à réserves amylacées[3].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des arbres ou des arbustes, en général dioïques, à port de palmier. Les feuilles sont grandes, pétiolées, paripennées, 4-10-juguées, en rosette au sommet de la tige.
 </t>
         </is>
       </c>
@@ -575,12 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce genre a pour aire de répartition l'Afrique tropicale surtout occidentale, comptant 32 espèces[1] en partie mal connues et insuffisamment caractérisées, dont huit au Congo[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont en général caulinaires, souvent à la base même du tronc, en faux épis de cymules ; les bractées ne dépassent pas les fleurs, qui sont zygomorphes. Le calice est subglobuleux ou ovoïde, parfois turbiné, à cinq dents ou cinq lobes ; il y a 4 ou 5 pétales, dépassant peu le calice, brièvement onguiculés, à limbe oblong ou ovale, souvent denticulé, à écaille arrondie ou à deux lobes, présentant à la face externe une ligule ou deux appendices subulés. Le disque est asymétrique, unilatéral, glabre ; les étamines sont sept ou huit pour Chytranthus ou 12 à 15 pour Glossolepsis, en faisceau excentrique, aussi longues que les pétales dans les fleurs mâles, réduites dans les fleurs femelles, à filet cilié et anthère basifixe introrse, parfois glanduleuse ; l'ovaire des fleurs femelles possède 3 ou 6-8 carpelles et un ovule, velu. Le style est robuste et le stigmate à peine lobé.
+Les fruits sont indéhiscents, parfois volumineux, charnus, à sillons et côtes plus ou moins marqués, ces dernières parfois aliformes et peu charnues. Les graines sont plus ou moins allongées et comprimées latéralement ; les cotylédons sont à réserves amylacées.
 </t>
         </is>
       </c>
@@ -606,12 +629,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a pour aire de répartition l'Afrique tropicale surtout occidentale, comptant 32 espèces en partie mal connues et insuffisamment caractérisées, dont huit au Congo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chytranthus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chytranthus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 mars 2021)[1]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (10 mars 2021)
 Chytranthus angustifolius Exell
 Chytranthus atroviolaceus Baker f. ex Hutch. &amp; Dalziel
 Chytranthus calophyllus Radlk. ex Engl.
